--- a/src/data/IMPORT_LESSON_LapTrinhPhanMem.xlsx
+++ b/src/data/IMPORT_LESSON_LapTrinhPhanMem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DoAnTotNghiep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DoAnTotNghiep\GoatEnglish\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B1531A-7A3C-4AC6-BBA0-EF1D78BA9EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4C7370-632B-4346-BDA8-A31143DCF430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{C94B9B43-E34D-4C0C-8662-AFEF24C89D47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C94B9B43-E34D-4C0C-8662-AFEF24C89D47}"/>
   </bookViews>
   <sheets>
     <sheet name="Mau 01" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="418">
   <si>
     <r>
       <t xml:space="preserve">Đáp án đúng </t>
@@ -292,117 +292,12 @@
     <t>Hơi nâng cao</t>
   </si>
   <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>Chọn đáp án đúng</t>
   </si>
   <si>
-    <t>The correct word is 'network'.</t>
-  </si>
-  <si>
-    <t>Từ đúng là 'network' (mạng lưới).</t>
-  </si>
-  <si>
-    <t>The Internet is a global ______ that connects computers.</t>
-  </si>
-  <si>
-    <t>Which of the following is used to access the Internet?</t>
-  </si>
-  <si>
-    <t>A. Router
-B. Television
-C. Washing machine
-D. Microwave</t>
-  </si>
-  <si>
-    <t>A router helps you connect to the Internet.</t>
-  </si>
-  <si>
-    <t>Router giúp bạn kết nối với Internet.</t>
-  </si>
-  <si>
-    <t>Match the words to form a correct sentence</t>
-  </si>
-  <si>
     <t>Ghép thành câu hoàn chỉnh</t>
   </si>
   <si>
-    <t>I use the Internet to learn English.</t>
-  </si>
-  <si>
-    <t>The sentence is: I use the Internet to learn English.</t>
-  </si>
-  <si>
-    <t>Câu đúng là: Tôi sử dụng Internet để học tiếng Anh.</t>
-  </si>
-  <si>
-    <t>I use the Internet to ______ with my friends.</t>
-  </si>
-  <si>
-    <t>chat</t>
-  </si>
-  <si>
-    <t>The correct word is 'chat'.</t>
-  </si>
-  <si>
-    <t>Từ đúng là 'chat' (trò chuyện).</t>
-  </si>
-  <si>
-    <t>We can ______ videos on the Internet.</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>We watch videos online.</t>
-  </si>
-  <si>
-    <t>Chúng ta xem video trên Internet.</t>
-  </si>
-  <si>
-    <t>Which one is NOT used with the Internet?</t>
-  </si>
-  <si>
-    <t>A. Laptop
-B. Smartphone
-C. Microwave
-D. Tablet</t>
-  </si>
-  <si>
-    <t>Microwave</t>
-  </si>
-  <si>
-    <t>Microwave is not an Internet device.</t>
-  </si>
-  <si>
-    <t>Lò vi sóng không phải thiết bị dùng với Internet.</t>
-  </si>
-  <si>
-    <t>Which app helps you browse the Internet?</t>
-  </si>
-  <si>
-    <t>A. Chrome
-B. Calculator
-C. Camera
-D. Clock</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Chrome is a web browser.</t>
-  </si>
-  <si>
-    <t>Chrome là trình duyệt web.</t>
-  </si>
-  <si>
-    <t>Match the sentence</t>
-  </si>
-  <si>
     <t>You can send emails on the Internet.</t>
   </si>
   <si>
@@ -412,138 +307,6 @@
     <t>Câu đúng là: Bạn có thể gửi email trên Internet.</t>
   </si>
   <si>
-    <t>The ______ is used to type commands and code.</t>
-  </si>
-  <si>
-    <t>keyboard</t>
-  </si>
-  <si>
-    <t>The keyboard is an input device used to enter data or code.</t>
-  </si>
-  <si>
-    <t>Bàn phím là thiết bị nhập dùng để gõ lệnh hoặc viết mã.</t>
-  </si>
-  <si>
-    <t>We use a ______ to view web pages.</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>A browser (like Chrome or Firefox) helps us view websites.</t>
-  </si>
-  <si>
-    <t>Trình duyệt (như Chrome hoặc Firefox) giúp ta xem trang web.</t>
-  </si>
-  <si>
-    <t>Which one is NOT a web browser?</t>
-  </si>
-  <si>
-    <t>A. Firefox
-B. Chrome
-C. Safari
-D. Photoshop</t>
-  </si>
-  <si>
-    <t>Photoshop</t>
-  </si>
-  <si>
-    <t>Photoshop is for editing images, not browsing the web.</t>
-  </si>
-  <si>
-    <t>Photoshop là phần mềm chỉnh sửa ảnh, không phải trình duyệt web.</t>
-  </si>
-  <si>
-    <t>What does CPU stand for?</t>
-  </si>
-  <si>
-    <t>A. Central Power Unit
-B. Central Processing Unit
-C. Computer Processing Unit
-D. Central Program Utility</t>
-  </si>
-  <si>
-    <t>Central Processing Unit</t>
-  </si>
-  <si>
-    <t>CPU is the brain of the computer.</t>
-  </si>
-  <si>
-    <t>CPU là bộ não của máy tính.</t>
-  </si>
-  <si>
-    <t>Complete the sentence</t>
-  </si>
-  <si>
-    <t>HTML (HyperText Markup Language) is used to create the structure of web pages.</t>
-  </si>
-  <si>
-    <t>HTML  is used to create the structure of web pages.</t>
-  </si>
-  <si>
-    <t>HTML dùng để tạo cấu trúc cho các trang web.</t>
-  </si>
-  <si>
-    <t>A website can be accessed through a ____, while an app must be ____ and installed.</t>
-  </si>
-  <si>
-    <t>browser, downloaded</t>
-  </si>
-  <si>
-    <t>You access websites using a browser. Apps must be downloaded first.</t>
-  </si>
-  <si>
-    <t>Bạn sử dụng trình duyệt để truy cập website. Ứng dụng thì cần tải về và cài đặt.</t>
-  </si>
-  <si>
-    <t>What is said in the audio?</t>
-  </si>
-  <si>
-    <t>A. Apps are accessed through a browser.
-B. Websites require installation.
-C. Apps must be downloaded from app stores.
-D. Websites cannot be used on phones.</t>
-  </si>
-  <si>
-    <t>Apps must be downloaded from app stores.</t>
-  </si>
-  <si>
-    <t>The audio mentions apps must be downloaded.</t>
-  </si>
-  <si>
-    <t>Âm thanh nói rằng ứng dụng cần được tải từ kho ứng dụng.</t>
-  </si>
-  <si>
-    <t>Arrange the words to form a correct sentence:</t>
-  </si>
-  <si>
-    <t>Apps must be installed</t>
-  </si>
-  <si>
-    <t>The sentence structure is Subject + Modal + Verb + Verb (past participle).</t>
-  </si>
-  <si>
-    <t>Cấu trúc câu chuẩn là Chủ ngữ + Động từ khiếm khuyết + Động từ nguyên thể.</t>
-  </si>
-  <si>
-    <t>Which is more accessible without installation?</t>
-  </si>
-  <si>
-    <t>A. Mobile app
-B. Desktop app
-C. Website
-D. Game app</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Websites are accessible instantly via browser.</t>
-  </si>
-  <si>
-    <t>Website có thể truy cập ngay qua trình duyệt mà không cần cài đặt.</t>
-  </si>
-  <si>
     <t>Nghe và ghép thành câu đúng</t>
   </si>
   <si>
@@ -761,6 +524,1009 @@
   </si>
   <si>
     <t>Lập trình phần mềm</t>
+  </si>
+  <si>
+    <t>A set of instructions that tells the computer what to do is</t>
+  </si>
+  <si>
+    <t>A. Software
+B. Application
+C. System
+D. Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Software provides instructions for the computer.</t>
+  </si>
+  <si>
+    <t>Phần mềm cung cấp các chỉ thị cho máy tính.</t>
+  </si>
+  <si>
+    <t>Programs that help users perform specific tasks are called application</t>
+  </si>
+  <si>
+    <t>A. Program
+B. Application
+C. Software
+D. Computer</t>
+  </si>
+  <si>
+    <t>Application software helps users with tasks.</t>
+  </si>
+  <si>
+    <t>Phần mềm ứng dụng giúp người dùng thực hiện các tác vụ.</t>
+  </si>
+  <si>
+    <t>The software that manages computer hardware and software resources is system</t>
+  </si>
+  <si>
+    <t>A. Browser
+B. Operating
+C. Software
+D. System</t>
+  </si>
+  <si>
+    <t>System software manages the computer's operations.</t>
+  </si>
+  <si>
+    <t>Phần mềm hệ thống quản lý hoạt động của máy tính.</t>
+  </si>
+  <si>
+    <t>Examples of application software include word processors and web</t>
+  </si>
+  <si>
+    <t>Nghe và chọn đáp án đúng</t>
+  </si>
+  <si>
+    <t>A. Browsers
+B. Operating
+C. Software
+D. System</t>
+  </si>
+  <si>
+    <t>Browsers</t>
+  </si>
+  <si>
+    <t>Word processors and web browsers are applications.</t>
+  </si>
+  <si>
+    <t>Trình xử lý văn bản và trình duyệt web là các ứng dụng.</t>
+  </si>
+  <si>
+    <t>Operating systems manage the system.</t>
+  </si>
+  <si>
+    <t>Hệ điều hành quản lý hệ thống.</t>
+  </si>
+  <si>
+    <t>Computers need software to do tasks.</t>
+  </si>
+  <si>
+    <t>Máy tính cần phần mềm để thực hiện các tác vụ.</t>
+  </si>
+  <si>
+    <t>Hardware needs software to function.</t>
+  </si>
+  <si>
+    <t>Phần cứng cần phần mềm để hoạt động.</t>
+  </si>
+  <si>
+    <t>________ software helps the computer run and manage its resources.</t>
+  </si>
+  <si>
+    <t>A. System
+B. Application</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>System software manages the computer system.</t>
+  </si>
+  <si>
+    <t>Phần mềm hệ thống quản lý hệ thống máy tính.</t>
+  </si>
+  <si>
+    <t>________ software is designed for end-users to perform specific tasks.</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Application software is for user tasks.</t>
+  </si>
+  <si>
+    <t>Phần mềm ứng dụng dành cho các tác vụ của người dùng.</t>
+  </si>
+  <si>
+    <t>Which of the following is an example of system software?</t>
+  </si>
+  <si>
+    <t>A. Microsoft Word
+B. Google Chrome
+C. Windows 10
+D. Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Windows 10 is an operating system, which is system software.</t>
+  </si>
+  <si>
+    <t>Windows 10 là một hệ điều hành, là phần mềm hệ thống.</t>
+  </si>
+  <si>
+    <t>What is the main role of software in a computer?</t>
+  </si>
+  <si>
+    <t>A. To store data
+B. To perform tasks and operations
+C. To connect to the internet
+D. To protect against viruses</t>
+  </si>
+  <si>
+    <t>To perform tasks and operations</t>
+  </si>
+  <si>
+    <t>Software enables the computer to perform tasks.</t>
+  </si>
+  <si>
+    <t>Phần mềm cho phép máy tính thực hiện các tác vụ.</t>
+  </si>
+  <si>
+    <t>Ghép thành câu có nghĩa (dựa trên audio)</t>
+  </si>
+  <si>
+    <t>Software makes computers useful</t>
+  </si>
+  <si>
+    <t>The audio says 'Software makes computers useful'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Phần mềm làm cho máy tính hữu ích'.</t>
+  </si>
+  <si>
+    <t>We use application software daily</t>
+  </si>
+  <si>
+    <t>The audio says 'We use application software daily'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Chúng ta sử dụng phần mềm ứng dụng hàng ngày'.</t>
+  </si>
+  <si>
+    <t>System software runs in the background</t>
+  </si>
+  <si>
+    <t>Audio nói 'Phần mềm hệ thống chạy ngầm'.</t>
+  </si>
+  <si>
+    <t>The audio says 'System software runs in the background'</t>
+  </si>
+  <si>
+    <t>Nghe và chọn từ đúng:</t>
+  </si>
+  <si>
+    <t>A. HARDWARE
+B. SOFTWARE</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>The audio says 'software'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'software'.</t>
+  </si>
+  <si>
+    <t>A. APPLICATION
+B. INSTALLATION</t>
+  </si>
+  <si>
+    <t>APPLICATION</t>
+  </si>
+  <si>
+    <t>The audio says 'application software'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'phần mềm ứng dụng'.</t>
+  </si>
+  <si>
+    <t>A. SYSTEM
+B. PROBLEM</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>The audio says 'system software'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'phần mềm hệ thống'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn ví dụ về application software:</t>
+  </si>
+  <si>
+    <t>A. WINDOWS
+B. WORD</t>
+  </si>
+  <si>
+    <t>The audio says 'Microsoft Word'.</t>
+  </si>
+  <si>
+    <t>WORD</t>
+  </si>
+  <si>
+    <t>Audio nói 'Microsoft Word'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn động từ liên quan đến software:</t>
+  </si>
+  <si>
+    <t>A. TOUCH
+B. INSTALL</t>
+  </si>
+  <si>
+    <t>INSTALL</t>
+  </si>
+  <si>
+    <t>The audio says 'install software'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'cài đặt phần mềm'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn tính từ mô tả software:</t>
+  </si>
+  <si>
+    <t>A. PHYSICAL
+B. VIRTUAL</t>
+  </si>
+  <si>
+    <t>VIRTUAL</t>
+  </si>
+  <si>
+    <t>Software is virtual, not physical.</t>
+  </si>
+  <si>
+    <t>Phần mềm là ảo, không phải vật lý.</t>
+  </si>
+  <si>
+    <t>Ghép thành câu có nghĩa</t>
+  </si>
+  <si>
+    <t>The CPU (Central Processing Unit) is the brain.</t>
+  </si>
+  <si>
+    <t>CPU (Bộ xử lý trung tâm) là bộ não của máy tính.</t>
+  </si>
+  <si>
+    <t>RAM (Random Access Memory) is temporary.</t>
+  </si>
+  <si>
+    <t>RAM (Bộ nhớ truy cập ngẫu nhiên) là bộ nhớ tạm thời.</t>
+  </si>
+  <si>
+    <t>The hard drive provides permanent storage.</t>
+  </si>
+  <si>
+    <t>Ổ cứng cung cấp bộ nhớ vĩnh viễn.</t>
+  </si>
+  <si>
+    <t>The monitor is the display screen.</t>
+  </si>
+  <si>
+    <t>Màn hình là thiết bị hiển thị.</t>
+  </si>
+  <si>
+    <t>The keyboard is used for typing.</t>
+  </si>
+  <si>
+    <t>Bàn phím được dùng để gõ.</t>
+  </si>
+  <si>
+    <t>The mouse controls the cursor.</t>
+  </si>
+  <si>
+    <t>Chuột điều khiển con trỏ.</t>
+  </si>
+  <si>
+    <t>The motherboard connects all components.</t>
+  </si>
+  <si>
+    <t>Bo mạch chủ kết nối tất cả các thành phần.</t>
+  </si>
+  <si>
+    <t>The ________ is responsible for executing instructions and performing calculations.</t>
+  </si>
+  <si>
+    <t>A. RAM
+B. CPU</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>The CPU is the processor.</t>
+  </si>
+  <si>
+    <t>CPU là bộ xử lý.</t>
+  </si>
+  <si>
+    <t>________ allows the computer to store and access data quickly for active tasks.</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>RAM is used for quick data access.</t>
+  </si>
+  <si>
+    <t>RAM được dùng để truy cập dữ liệu nhanh chóng.</t>
+  </si>
+  <si>
+    <t>Which of the following is a primary input device?</t>
+  </si>
+  <si>
+    <t>A. Monitor
+B. Printer
+C. Keyboard
+D. Speaker</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>A keyboard is used to input text.</t>
+  </si>
+  <si>
+    <t>Bàn phím được dùng để nhập văn bản.</t>
+  </si>
+  <si>
+    <t>What is the function of a 'hard drive'?</t>
+  </si>
+  <si>
+    <t>A. To process information
+B. To display graphics
+C. To store data permanently
+D. To connect to the internet</t>
+  </si>
+  <si>
+    <t>To store data permanently</t>
+  </si>
+  <si>
+    <t>The hard drive stores data long-term.</t>
+  </si>
+  <si>
+    <t>Ổ cứng lưu trữ dữ liệu dài hạn.</t>
+  </si>
+  <si>
+    <t>The monitor shows the output</t>
+  </si>
+  <si>
+    <t>The audio says 'The monitor shows the output'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Màn hình hiển thị đầu ra'.</t>
+  </si>
+  <si>
+    <t>RAM is important for multitasking</t>
+  </si>
+  <si>
+    <t>The audio says 'RAM is important for multitasking'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'RAM quan trọng cho đa nhiệm'</t>
+  </si>
+  <si>
+    <t>The keyboard is used to type code</t>
+  </si>
+  <si>
+    <t>The audio says 'The keyboard is used to type code'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Bàn phím được dùng để gõ code'.</t>
+  </si>
+  <si>
+    <t>A. CPU
+B. GPU</t>
+  </si>
+  <si>
+    <t>The audio says 'CPU'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'CPU'.</t>
+  </si>
+  <si>
+    <t>A. ROM
+B. RAM</t>
+  </si>
+  <si>
+    <t>The audio says 'RAM'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'RAM'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn thiết bị:</t>
+  </si>
+  <si>
+    <t>A. PRINTER
+B. MONITOR</t>
+  </si>
+  <si>
+    <t>MONITOR</t>
+  </si>
+  <si>
+    <t>The audio says 'monitor'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'màn hình'.</t>
+  </si>
+  <si>
+    <t>A. KEYBOARD
+B. SCANNER</t>
+  </si>
+  <si>
+    <t>KEYBOARD</t>
+  </si>
+  <si>
+    <t>The audio says 'keyboard'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'bàn phím'.</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
+  </si>
+  <si>
+    <t>A. MOUSE
+B. MODEM</t>
+  </si>
+  <si>
+    <t>The audio says 'mouse'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'chuột'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn thành phần bên trong:</t>
+  </si>
+  <si>
+    <t>A. SPEAKER
+B. MOTHERBOARD</t>
+  </si>
+  <si>
+    <t>MOTHERBOARD</t>
+  </si>
+  <si>
+    <t>The audio says 'motherboard'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'bo mạch chủ'.</t>
+  </si>
+  <si>
+    <t>Programming is instructing the computer.</t>
+  </si>
+  <si>
+    <t>Lập trình là việc hướng dẫn máy tính.</t>
+  </si>
+  <si>
+    <t>Code is the language of programming.</t>
+  </si>
+  <si>
+    <t>Code là ngôn ngữ của lập trình.</t>
+  </si>
+  <si>
+    <t>Syntax is the grammar of programming.</t>
+  </si>
+  <si>
+    <t>Cú pháp là ngữ pháp của lập trình.</t>
+  </si>
+  <si>
+    <t>A variable holds data.</t>
+  </si>
+  <si>
+    <t>Một biến chứa dữ liệu.</t>
+  </si>
+  <si>
+    <t>Data types classify information.</t>
+  </si>
+  <si>
+    <t>Các kiểu dữ liệu phân loại thông tin.</t>
+  </si>
+  <si>
+    <t>A program executes a series of instructions.</t>
+  </si>
+  <si>
+    <t>Một chương trình thực hiện một chuỗi các chỉ thị.</t>
+  </si>
+  <si>
+    <t>Debugging removes errors from code.</t>
+  </si>
+  <si>
+    <t>Gỡ lỗi loại bỏ các lỗi khỏi code.</t>
+  </si>
+  <si>
+    <t>We use a ________ language to communicate with computers.</t>
+  </si>
+  <si>
+    <t>A. Spoken
+B. Programming</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Programming languages are for computer communication.</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình dùng để giao tiếp với máy tính.</t>
+  </si>
+  <si>
+    <t>Before writing code, it's important to understand the ________ you are trying to solve.</t>
+  </si>
+  <si>
+    <t>Understanding the problem is the first step in programming.</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Hiểu vấn đề là bước đầu tiên trong lập trình.</t>
+  </si>
+  <si>
+    <t>What is the purpose of 'code' in programming?</t>
+  </si>
+  <si>
+    <t>A. To design computer hardware
+B. To give instructions to the computer
+C. To store large amounts of data
+D. To connect to the internet</t>
+  </si>
+  <si>
+    <t>To give instructions to the computer</t>
+  </si>
+  <si>
+    <t>Code provides the commands for the computer.</t>
+  </si>
+  <si>
+    <t>Code cung cấp các lệnh cho máy tính.</t>
+  </si>
+  <si>
+    <t>Which of the following is a fundamental concept in programming?</t>
+  </si>
+  <si>
+    <t>A. Electricity
+B. Variables
+C. Magnetism
+D. Gravity</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Variables are used to store data in programming.</t>
+  </si>
+  <si>
+    <t>Biến được dùng để lưu trữ dữ liệu trong lập trình.</t>
+  </si>
+  <si>
+    <t>Programming helps automate tasks</t>
+  </si>
+  <si>
+    <t>The audio says 'Programming helps automate tasks'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Lập trình giúp tự động hóa các tác vụ'.</t>
+  </si>
+  <si>
+    <t>The audio says 'Learning to code is a valuable skill'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Học code là một kỹ năng giá trị'.</t>
+  </si>
+  <si>
+    <t>Learning to code is a valuable skill</t>
+  </si>
+  <si>
+    <t>Computers follow instructions in a program</t>
+  </si>
+  <si>
+    <t>The audio says 'Computers follow instructions in a program'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Máy tính tuân theo các chỉ thị trong một chương trình'.</t>
+  </si>
+  <si>
+    <t>A. PROGRAMMING
+B. PROBLEMING</t>
+  </si>
+  <si>
+    <t>PROGRAMMING</t>
+  </si>
+  <si>
+    <t>The audio says 'programming'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'lập trình'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn khái niệm:</t>
+  </si>
+  <si>
+    <t>A. HARDWARE
+B. CODE</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>The audio says 'code'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'code'.</t>
+  </si>
+  <si>
+    <t>A. SYNTAX
+B. SEMANTICS</t>
+  </si>
+  <si>
+    <t>SYNTAX</t>
+  </si>
+  <si>
+    <t>The audio says 'syntax'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'cú pháp'.</t>
+  </si>
+  <si>
+    <t>A. CONSTANT
+B. VARIABLE</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>The audio says 'variable'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'biến'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn hành động:</t>
+  </si>
+  <si>
+    <t>A. DESIGNING
+B. DEBUGGING</t>
+  </si>
+  <si>
+    <t>DEBUGGING</t>
+  </si>
+  <si>
+    <t>The audio says 'debugging'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'gỡ lỗi'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn kết quả của lập trình:</t>
+  </si>
+  <si>
+    <t>A. CIRCUIT
+B. PROGRAM</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>The audio says 'program'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'chương trình'.</t>
+  </si>
+  <si>
+    <t>Python is widely used for various applications.</t>
+  </si>
+  <si>
+    <t>Python được sử dụng rộng rãi cho nhiều ứng dụng khác nhau.</t>
+  </si>
+  <si>
+    <t>Java can run on different operating systems.</t>
+  </si>
+  <si>
+    <t>Java có thể chạy trên nhiều hệ điều hành khác nhau.</t>
+  </si>
+  <si>
+    <t>JavaScript makes websites interactive.</t>
+  </si>
+  <si>
+    <t>JavaScript làm cho các trang web tương tác.</t>
+  </si>
+  <si>
+    <t>C++ is known for its performance.</t>
+  </si>
+  <si>
+    <t>C++ nổi tiếng về hiệu suất.</t>
+  </si>
+  <si>
+    <t>PHP is often used for server-side scripting.</t>
+  </si>
+  <si>
+    <t>PHP thường được dùng cho kịch bản phía máy chủ.</t>
+  </si>
+  <si>
+    <t>C# is part of the .NET framework.</t>
+  </si>
+  <si>
+    <t>C# là một phần của nền tảng .NET.</t>
+  </si>
+  <si>
+    <t>R has strong statistical capabilities.</t>
+  </si>
+  <si>
+    <t>R có khả năng thống kê mạnh mẽ.</t>
+  </si>
+  <si>
+    <t>________ is known for its simple syntax and is often recommended for beginners.</t>
+  </si>
+  <si>
+    <t>A. Java
+B. Python</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Python's syntax is easy to learn.</t>
+  </si>
+  <si>
+    <t>Cú pháp của Python rất dễ học.</t>
+  </si>
+  <si>
+    <t>________'s slogan is 'Write Once, Run Anywhere'.</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Java aims for platform independence.</t>
+  </si>
+  <si>
+    <t>Java hướng đến sự độc lập nền tảng.</t>
+  </si>
+  <si>
+    <t>Which programming language is primarily used for front-end web development?</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>A. Python
+B. Java
+C. JavaScript
+D. C++</t>
+  </si>
+  <si>
+    <t>JavaScript runs in web browsers.</t>
+  </si>
+  <si>
+    <t>JavaScript chạy trên trình duyệt web.</t>
+  </si>
+  <si>
+    <t>Which programming language is often used for building large-scale enterprise applications?</t>
+  </si>
+  <si>
+    <t>A. PHP
+B. Java
+C. Python
+D. JavaScript</t>
+  </si>
+  <si>
+    <t>Java is robust and scalable.</t>
+  </si>
+  <si>
+    <t>Java mạnh mẽ và có khả năng mở rộng.</t>
+  </si>
+  <si>
+    <t>Python is great for data science</t>
+  </si>
+  <si>
+    <t>The audio says 'Python is great for data science'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Python rất tốt cho khoa học dữ liệu'.</t>
+  </si>
+  <si>
+    <t>The audio says 'Java is used in many Android apps'.</t>
+  </si>
+  <si>
+    <t>Java is used in many Android apps</t>
+  </si>
+  <si>
+    <t>Audio nói 'Java được dùng trong nhiều ứng dụng Android'.</t>
+  </si>
+  <si>
+    <t>Nghe và chọn tên ngôn ngữ:</t>
+  </si>
+  <si>
+    <t>A. PYTHON
+B. PITHON</t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t>The audio says 'Python'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Python'.</t>
+  </si>
+  <si>
+    <t>A. JAVA
+B. JAVAS</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>The audio says 'Java'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'Java'.</t>
+  </si>
+  <si>
+    <t>The print function shows output.</t>
+  </si>
+  <si>
+    <t>Hàm print hiển thị đầu ra.</t>
+  </si>
+  <si>
+    <t>To display text on the screen in Python, we use the ________ function.</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>A sequence of characters within quotes is a ________.</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Strings are used for text.</t>
+  </si>
+  <si>
+    <t>Chuỗi được dùng cho văn bản.</t>
+  </si>
+  <si>
+    <t>In Python, we use ________ to store data that can change.</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>Variables hold values.</t>
+  </si>
+  <si>
+    <t>Biến giữ các giá trị.</t>
+  </si>
+  <si>
+    <t>The ________ symbol is used for assignment in Python.</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>The equals sign assigns values.</t>
+  </si>
+  <si>
+    <t>Dấu bằng gán giá trị.</t>
+  </si>
+  <si>
+    <t>To add two numbers in Python, we use the ________ operator.</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>The plus operator performs addition.</t>
+  </si>
+  <si>
+    <t>Dấu cộng thực hiện phép cộng.</t>
+  </si>
+  <si>
+    <t>The ________ function is used to display output in Python.</t>
+  </si>
+  <si>
+    <t>A. display
+B. print</t>
+  </si>
+  <si>
+    <t>Which symbol is used to assign a value to a variable in Python?</t>
+  </si>
+  <si>
+    <t>A. +
+B. =
+C. *
+D. -</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>How do you add two numbers together in Python?</t>
+  </si>
+  <si>
+    <t>A. add(x, y)
+B. x + y
+C. x and y
+D. x plus y</t>
+  </si>
+  <si>
+    <t>x + y</t>
+  </si>
+  <si>
+    <t>The plus operator adds numbers.</t>
+  </si>
+  <si>
+    <t>Dấu cộng cộng hai số.</t>
+  </si>
+  <si>
+    <t>print Hello World</t>
+  </si>
+  <si>
+    <t>The audio says 'print Hello World'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'print Hello World'.</t>
+  </si>
+  <si>
+    <t>print name</t>
+  </si>
+  <si>
+    <t>The audio says 'print name'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'print name'.</t>
+  </si>
+  <si>
+    <t>A. PRINT
+B. INT</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>The audio says 'print'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'print'.</t>
+  </si>
+  <si>
+    <t>A. STRING
+B. INT</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>The audio says 'string'.</t>
+  </si>
+  <si>
+    <t>Audio nói 'string'.</t>
+  </si>
+  <si>
+    <t>A. VARIABLE
+B. FUNCTION</t>
+  </si>
+  <si>
+    <t>Audio nói 'variable'.</t>
   </si>
 </sst>
 </file>
@@ -1194,19 +1960,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D382C9EF-85C3-4581-BD16-28A927E8615E}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.69921875" customWidth="1"/>
-    <col min="2" max="2" width="22.296875" customWidth="1"/>
-    <col min="3" max="3" width="23.296875" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="24.69921875" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1248,10 +2014,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1260,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -1275,7 +2041,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1284,7 +2050,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
@@ -1296,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -1308,7 +2074,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -1320,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
@@ -1332,7 +2098,7 @@
         <v>150</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -1344,10 +2110,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -1356,22 +2122,22 @@
         <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -1380,7 +2146,7 @@
         <v>250</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
@@ -1392,10 +2158,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -1404,7 +2170,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
@@ -1416,10 +2182,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -1428,7 +2194,7 @@
         <v>350</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>23</v>
@@ -1440,10 +2206,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -1452,7 +2218,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
@@ -1464,10 +2230,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -1476,7 +2242,7 @@
         <v>450</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
@@ -1488,10 +2254,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1500,7 +2266,7 @@
         <v>500</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>26</v>
@@ -1512,10 +2278,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1524,7 +2290,7 @@
         <v>550</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>26</v>
@@ -1536,10 +2302,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -1548,7 +2314,7 @@
         <v>600</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>26</v>
@@ -1560,10 +2326,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -1572,7 +2338,7 @@
         <v>650</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>26</v>
@@ -1584,10 +2350,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -1596,7 +2362,7 @@
         <v>700</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>26</v>
@@ -1608,10 +2374,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1620,7 +2386,7 @@
         <v>750</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>27</v>
@@ -1632,10 +2398,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
@@ -1644,7 +2410,7 @@
         <v>800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>27</v>
@@ -1656,10 +2422,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -1668,7 +2434,7 @@
         <v>850</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>27</v>
@@ -1680,10 +2446,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -1692,7 +2458,7 @@
         <v>900</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>27</v>
@@ -1704,10 +2470,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
@@ -1716,7 +2482,7 @@
         <v>950</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>27</v>
@@ -1728,10 +2494,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1740,7 +2506,7 @@
         <v>1000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>28</v>
@@ -1752,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1764,7 +2530,7 @@
         <v>1050</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>28</v>
@@ -1776,10 +2542,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -1788,7 +2554,7 @@
         <v>1100</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>28</v>
@@ -1800,10 +2566,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
@@ -1812,7 +2578,7 @@
         <v>1150</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>28</v>
@@ -1824,10 +2590,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
@@ -1836,7 +2602,7 @@
         <v>1200</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>28</v>
@@ -1848,10 +2614,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1860,10 +2626,10 @@
         <v>1250</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -1872,10 +2638,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -1884,10 +2650,10 @@
         <v>1300</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -1896,10 +2662,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
@@ -1908,10 +2674,10 @@
         <v>1350</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -1920,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
@@ -1932,10 +2698,10 @@
         <v>1400</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="H32" s="8"/>
     </row>
@@ -1944,10 +2710,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
@@ -1956,10 +2722,10 @@
         <v>1450</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -1968,10 +2734,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1980,10 +2746,10 @@
         <v>1500</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -1992,10 +2758,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -2004,10 +2770,10 @@
         <v>1550</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -2016,10 +2782,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
@@ -2028,10 +2794,10 @@
         <v>1600</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -2040,10 +2806,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="D37" s="3">
         <v>4</v>
@@ -2052,10 +2818,10 @@
         <v>1650</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -2064,10 +2830,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
@@ -2076,10 +2842,10 @@
         <v>1700</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -2091,20 +2857,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD5055-4949-4107-A4BC-578AEF3A5BDB}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.69921875" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="29.09765625" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
     <col min="8" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
@@ -2148,7 +2914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2156,24 +2922,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2184,29 +2952,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2214,27 +2982,29 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="4" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2242,24 +3012,26 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="4" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2270,27 +3042,27 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="4" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2298,29 +3070,27 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="4" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2328,26 +3098,24 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="4" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,52 +3126,54 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="4" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2411,27 +3181,27 @@
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="4" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="4" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2439,59 +3209,59 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="4" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="4" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2499,27 +3269,27 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="4" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="4" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2527,115 +3297,5997 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="4" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="4" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>93</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="4" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="4" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="4" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H101" s="7"/>
+      <c r="I101" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H102" s="7"/>
+      <c r="I102" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3">
+        <v>6</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H103" s="7"/>
+      <c r="I103" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3">
+        <v>6</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>104</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="B107" s="3">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>105</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
+        <v>6</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H110" s="7"/>
+      <c r="I110" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
+        <v>7</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3">
+        <v>7</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3">
+        <v>7</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H114" s="7"/>
+      <c r="I114" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H119" s="7"/>
+      <c r="I119" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H121" s="7"/>
+      <c r="I121" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="3">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="B124" s="3">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H124" s="7"/>
+      <c r="I124" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="3">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H125" s="7"/>
+      <c r="I125" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="3">
+        <v>7</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H126" s="7"/>
+      <c r="I126" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3">
+        <v>8</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+      <c r="B128" s="3">
+        <v>8</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H128" s="7"/>
+      <c r="I128" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="3">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="3">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H130" s="7"/>
+      <c r="I130" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>128</v>
+      </c>
+      <c r="B131" s="3">
+        <v>8</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>129</v>
+      </c>
+      <c r="B132" s="3">
+        <v>8</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H132" s="7"/>
+      <c r="I132" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="3">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H133" s="7"/>
+      <c r="I133" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>131</v>
+      </c>
+      <c r="B134" s="3">
+        <v>8</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H134" s="7"/>
+      <c r="I134" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>132</v>
+      </c>
+      <c r="B135" s="3">
+        <v>8</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H135" s="7"/>
+      <c r="I135" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>133</v>
+      </c>
+      <c r="B136" s="3">
+        <v>8</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H136" s="7"/>
+      <c r="I136" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>134</v>
+      </c>
+      <c r="B137" s="3">
+        <v>8</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>135</v>
+      </c>
+      <c r="B138" s="3">
+        <v>8</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>136</v>
+      </c>
+      <c r="B139" s="3">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H139" s="7"/>
+      <c r="I139" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>137</v>
+      </c>
+      <c r="B140" s="3">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H140" s="7"/>
+      <c r="I140" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>138</v>
+      </c>
+      <c r="B141" s="3">
+        <v>8</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H141" s="7"/>
+      <c r="I141" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>139</v>
+      </c>
+      <c r="B142" s="3">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H142" s="7"/>
+      <c r="I142" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>140</v>
+      </c>
+      <c r="B143" s="3">
+        <v>8</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F143" s="8"/>
+      <c r="G143" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H143" s="7"/>
+      <c r="I143" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>141</v>
+      </c>
+      <c r="B144" s="3">
+        <v>8</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F144" s="8"/>
+      <c r="G144" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H144" s="7"/>
+      <c r="I144" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>142</v>
+      </c>
+      <c r="B145" s="3">
+        <v>8</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F145" s="8"/>
+      <c r="G145" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H145" s="7"/>
+      <c r="I145" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>143</v>
+      </c>
+      <c r="B146" s="3">
+        <v>8</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H146" s="7"/>
+      <c r="I146" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>144</v>
+      </c>
+      <c r="B147" s="3">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H147" s="7"/>
+      <c r="I147" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>145</v>
+      </c>
+      <c r="B148" s="3">
+        <v>9</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H148" s="7"/>
+      <c r="I148" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>146</v>
+      </c>
+      <c r="B149" s="3">
+        <v>9</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H149" s="7"/>
+      <c r="I149" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>147</v>
+      </c>
+      <c r="B150" s="3">
+        <v>9</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F150" s="8"/>
+      <c r="G150" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H150" s="7"/>
+      <c r="I150" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>148</v>
+      </c>
+      <c r="B151" s="3">
+        <v>9</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F151" s="8"/>
+      <c r="G151" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H151" s="7"/>
+      <c r="I151" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>149</v>
+      </c>
+      <c r="B152" s="3">
+        <v>9</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H152" s="7"/>
+      <c r="I152" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>150</v>
+      </c>
+      <c r="B153" s="3">
+        <v>9</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H153" s="7"/>
+      <c r="I153" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>151</v>
+      </c>
+      <c r="B154" s="3">
+        <v>9</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H154" s="7"/>
+      <c r="I154" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>152</v>
+      </c>
+      <c r="B155" s="3">
+        <v>9</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H155" s="7"/>
+      <c r="I155" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>153</v>
+      </c>
+      <c r="B156" s="3">
+        <v>9</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F156" s="8"/>
+      <c r="G156" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H156" s="7"/>
+      <c r="I156" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>154</v>
+      </c>
+      <c r="B157" s="3">
+        <v>9</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H157" s="7"/>
+      <c r="I157" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>155</v>
+      </c>
+      <c r="B158" s="3">
+        <v>9</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H158" s="7"/>
+      <c r="I158" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>156</v>
+      </c>
+      <c r="B159" s="3">
+        <v>9</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H159" s="7"/>
+      <c r="I159" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>157</v>
+      </c>
+      <c r="B160" s="3">
+        <v>9</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" s="8"/>
+      <c r="G160" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H160" s="7"/>
+      <c r="I160" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>158</v>
+      </c>
+      <c r="B161" s="3">
+        <v>9</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H161" s="7"/>
+      <c r="I161" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>159</v>
+      </c>
+      <c r="B162" s="3">
+        <v>9</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H162" s="7"/>
+      <c r="I162" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>160</v>
+      </c>
+      <c r="B163" s="3">
+        <v>9</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F163" s="8"/>
+      <c r="G163" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H163" s="7"/>
+      <c r="I163" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>161</v>
+      </c>
+      <c r="B164" s="3">
+        <v>9</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H164" s="7"/>
+      <c r="I164" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>162</v>
+      </c>
+      <c r="B165" s="3">
+        <v>9</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F165" s="8"/>
+      <c r="G165" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H165" s="7"/>
+      <c r="I165" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>163</v>
+      </c>
+      <c r="B166" s="3">
+        <v>9</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H166" s="7"/>
+      <c r="I166" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>164</v>
+      </c>
+      <c r="B167" s="3">
+        <v>9</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F167" s="8"/>
+      <c r="G167" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H167" s="7"/>
+      <c r="I167" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>165</v>
+      </c>
+      <c r="B168" s="3">
+        <v>9</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H168" s="7"/>
+      <c r="I168" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>166</v>
+      </c>
+      <c r="B169" s="3">
+        <v>9</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H169" s="7"/>
+      <c r="I169" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>167</v>
+      </c>
+      <c r="B170" s="3">
+        <v>9</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H170" s="7"/>
+      <c r="I170" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>168</v>
+      </c>
+      <c r="B171" s="3">
+        <v>9</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H171" s="7"/>
+      <c r="I171" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>169</v>
+      </c>
+      <c r="B172" s="3">
+        <v>9</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F172" s="8"/>
+      <c r="G172" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H172" s="7"/>
+      <c r="I172" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>170</v>
+      </c>
+      <c r="B173" s="3">
+        <v>9</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F173" s="8"/>
+      <c r="G173" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H173" s="7"/>
+      <c r="I173" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>171</v>
+      </c>
+      <c r="B174" s="3">
+        <v>9</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H174" s="7"/>
+      <c r="I174" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>172</v>
+      </c>
+      <c r="B175" s="3">
+        <v>9</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H175" s="7"/>
+      <c r="I175" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>173</v>
+      </c>
+      <c r="B176" s="3">
+        <v>9</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H176" s="7"/>
+      <c r="I176" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>174</v>
+      </c>
+      <c r="B177" s="3">
+        <v>9</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H177" s="7"/>
+      <c r="I177" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>175</v>
+      </c>
+      <c r="B178" s="3">
+        <v>9</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" s="8"/>
+      <c r="G178" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H178" s="7"/>
+      <c r="I178" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>176</v>
+      </c>
+      <c r="B179" s="3">
+        <v>9</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H179" s="7"/>
+      <c r="I179" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>177</v>
+      </c>
+      <c r="B180" s="3">
+        <v>9</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H180" s="7"/>
+      <c r="I180" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>178</v>
+      </c>
+      <c r="B181" s="3">
+        <v>9</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F181" s="8"/>
+      <c r="G181" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H181" s="7"/>
+      <c r="I181" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>179</v>
+      </c>
+      <c r="B182" s="3">
+        <v>9</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F182" s="8"/>
+      <c r="G182" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H182" s="7"/>
+      <c r="I182" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>180</v>
+      </c>
+      <c r="B183" s="3">
+        <v>9</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H183" s="7"/>
+      <c r="I183" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>181</v>
+      </c>
+      <c r="B184" s="3">
+        <v>9</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H184" s="7"/>
+      <c r="I184" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>182</v>
+      </c>
+      <c r="B185" s="3">
+        <v>9</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F185" s="8"/>
+      <c r="G185" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H185" s="7"/>
+      <c r="I185" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>183</v>
+      </c>
+      <c r="B186" s="3">
+        <v>9</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F186" s="8"/>
+      <c r="G186" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H186" s="7"/>
+      <c r="I186" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>184</v>
+      </c>
+      <c r="B187" s="3">
+        <v>10</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H187" s="7"/>
+      <c r="I187" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>185</v>
+      </c>
+      <c r="B188" s="3">
+        <v>10</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H188" s="7"/>
+      <c r="I188" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>186</v>
+      </c>
+      <c r="B189" s="3">
+        <v>10</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H189" s="7"/>
+      <c r="I189" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>187</v>
+      </c>
+      <c r="B190" s="3">
+        <v>10</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H190" s="7"/>
+      <c r="I190" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>188</v>
+      </c>
+      <c r="B191" s="3">
+        <v>10</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F191" s="8"/>
+      <c r="G191" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H191" s="7"/>
+      <c r="I191" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>189</v>
+      </c>
+      <c r="B192" s="3">
+        <v>10</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F192" s="8"/>
+      <c r="G192" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H192" s="7"/>
+      <c r="I192" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>190</v>
+      </c>
+      <c r="B193" s="3">
+        <v>10</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F193" s="8"/>
+      <c r="G193" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H193" s="7"/>
+      <c r="I193" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>191</v>
+      </c>
+      <c r="B194" s="3">
+        <v>10</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F194" s="8"/>
+      <c r="G194" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H194" s="7"/>
+      <c r="I194" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>192</v>
+      </c>
+      <c r="B195" s="3">
+        <v>10</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F195" s="8"/>
+      <c r="G195" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H195" s="7"/>
+      <c r="I195" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>193</v>
+      </c>
+      <c r="B196" s="3">
+        <v>10</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F196" s="8"/>
+      <c r="G196" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H196" s="7"/>
+      <c r="I196" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>194</v>
+      </c>
+      <c r="B197" s="3">
+        <v>10</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F197" s="8"/>
+      <c r="G197" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H197" s="7"/>
+      <c r="I197" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>195</v>
+      </c>
+      <c r="B198" s="3">
+        <v>10</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H198" s="7"/>
+      <c r="I198" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>196</v>
+      </c>
+      <c r="B199" s="3">
+        <v>10</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F199" s="8"/>
+      <c r="G199" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H199" s="7"/>
+      <c r="I199" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>197</v>
+      </c>
+      <c r="B200" s="3">
+        <v>10</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H200" s="7"/>
+      <c r="I200" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>198</v>
+      </c>
+      <c r="B201" s="3">
+        <v>10</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H201" s="7"/>
+      <c r="I201" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>199</v>
+      </c>
+      <c r="B202" s="3">
+        <v>10</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F202" s="8"/>
+      <c r="G202" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H202" s="7"/>
+      <c r="I202" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>200</v>
+      </c>
+      <c r="B203" s="3">
+        <v>10</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F203" s="8"/>
+      <c r="G203" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H203" s="7"/>
+      <c r="I203" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>201</v>
+      </c>
+      <c r="B204" s="3">
+        <v>10</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F204" s="8"/>
+      <c r="G204" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H204" s="7"/>
+      <c r="I204" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>202</v>
+      </c>
+      <c r="B205" s="3">
+        <v>10</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H205" s="7"/>
+      <c r="I205" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>203</v>
+      </c>
+      <c r="B206" s="3">
+        <v>10</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H206" s="7"/>
+      <c r="I206" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>204</v>
+      </c>
+      <c r="B207" s="3">
+        <v>10</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H207" s="7"/>
+      <c r="I207" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>205</v>
+      </c>
+      <c r="B208" s="3">
+        <v>10</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H208" s="7"/>
+      <c r="I208" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>206</v>
+      </c>
+      <c r="B209" s="3">
+        <v>10</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H209" s="7"/>
+      <c r="I209" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>207</v>
+      </c>
+      <c r="B210" s="3">
+        <v>10</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H210" s="7"/>
+      <c r="I210" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>208</v>
+      </c>
+      <c r="B211" s="3">
+        <v>10</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F211" s="8"/>
+      <c r="G211" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H211" s="7"/>
+      <c r="I211" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>209</v>
+      </c>
+      <c r="B212" s="3">
+        <v>10</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F212" s="8"/>
+      <c r="G212" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H212" s="7"/>
+      <c r="I212" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>210</v>
+      </c>
+      <c r="B213" s="3">
+        <v>10</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F213" s="8"/>
+      <c r="G213" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H213" s="7"/>
+      <c r="I213" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>211</v>
+      </c>
+      <c r="B214" s="3">
+        <v>10</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F214" s="8"/>
+      <c r="G214" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H214" s="7"/>
+      <c r="I214" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>212</v>
+      </c>
+      <c r="B215" s="3">
+        <v>10</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F215" s="8"/>
+      <c r="G215" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H215" s="7"/>
+      <c r="I215" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>213</v>
+      </c>
+      <c r="B216" s="3">
+        <v>10</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F216" s="8"/>
+      <c r="G216" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H216" s="7"/>
+      <c r="I216" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>214</v>
+      </c>
+      <c r="B217" s="3">
+        <v>10</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F217" s="8"/>
+      <c r="G217" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H217" s="7"/>
+      <c r="I217" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>215</v>
+      </c>
+      <c r="B218" s="3">
+        <v>10</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H218" s="7"/>
+      <c r="I218" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>216</v>
+      </c>
+      <c r="B219" s="3">
+        <v>10</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F219" s="8"/>
+      <c r="G219" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H219" s="7"/>
+      <c r="I219" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>217</v>
+      </c>
+      <c r="B220" s="3">
+        <v>10</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H220" s="7"/>
+      <c r="I220" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>218</v>
+      </c>
+      <c r="B221" s="3">
+        <v>10</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H221" s="7"/>
+      <c r="I221" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>219</v>
+      </c>
+      <c r="B222" s="3">
+        <v>10</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F222" s="8"/>
+      <c r="G222" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H222" s="7"/>
+      <c r="I222" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>220</v>
+      </c>
+      <c r="B223" s="3">
+        <v>10</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F223" s="8"/>
+      <c r="G223" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H223" s="7"/>
+      <c r="I223" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
